--- a/Summer 2020/Video List.xlsx
+++ b/Summer 2020/Video List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cyrilllau/Documents/GitHub/STT442/Summer 2020/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A7C0122-97FA-744D-9EA7-A4C52E29B157}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F07F942-9208-4347-ACD0-918B6CDE35DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3900" yWindow="2260" windowWidth="28040" windowHeight="17440" xr2:uid="{E7211833-2882-D240-B480-29060643F159}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Video Name</t>
   </si>
@@ -60,13 +60,22 @@
   </si>
   <si>
     <t>4i@5b70.</t>
+  </si>
+  <si>
+    <t>Lecture2</t>
+  </si>
+  <si>
+    <t>https://us02web.zoom.us/rec/share/9_YpIqro0zhIW6uRxkHDdpY_GIm1aaa8gSlP__cMnkZtWtDzi03XMfL6VzX5ObpC</t>
+  </si>
+  <si>
+    <t>5m$9nd1*</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -81,6 +90,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -104,9 +119,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -422,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B368F891-DDC9-1F48-93CA-0D957A7AA0F7}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -467,10 +483,22 @@
         <v>8</v>
       </c>
     </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{F8A3EA73-5611-DA42-A53D-0CEE82A1AFB0}"/>
     <hyperlink ref="B3" r:id="rId2" xr:uid="{7E308111-4F65-2C41-8107-0167FA95FC93}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{C912A04D-137C-9445-A45F-CD750A01D356}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Summer 2020/Video List.xlsx
+++ b/Summer 2020/Video List.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cyrilllau/Documents/GitHub/STT442/Summer 2020/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F07F942-9208-4347-ACD0-918B6CDE35DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05BFE0A4-0396-7B41-8224-D938AE163431}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3900" yWindow="2260" windowWidth="28040" windowHeight="17440" xr2:uid="{E7211833-2882-D240-B480-29060643F159}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Video Name</t>
   </si>
@@ -69,6 +69,24 @@
   </si>
   <si>
     <t>5m$9nd1*</t>
+  </si>
+  <si>
+    <t>ExamReview</t>
+  </si>
+  <si>
+    <t>Exam1讲解</t>
+  </si>
+  <si>
+    <t>https://us02web.zoom.us/rec/share/45NKMr-p5E1JRbfjt1OGS7AGAYXVT6a8gHBK-6VcmUyvBtm_zTw-GxXKBo3CZgTU</t>
+  </si>
+  <si>
+    <t>xG3j+0P#</t>
+  </si>
+  <si>
+    <t>https://us02web.zoom.us/rec/share/5-9lF5av_XhIctaW7WzBffcQMrTJX6a8gSJP__QOyEgjb1_RoMDl7OCjvotBB2RQ</t>
+  </si>
+  <si>
+    <t>7T%=V9^D</t>
   </si>
 </sst>
 </file>
@@ -438,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B368F891-DDC9-1F48-93CA-0D957A7AA0F7}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -494,11 +512,35 @@
         <v>11</v>
       </c>
     </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{F8A3EA73-5611-DA42-A53D-0CEE82A1AFB0}"/>
     <hyperlink ref="B3" r:id="rId2" xr:uid="{7E308111-4F65-2C41-8107-0167FA95FC93}"/>
     <hyperlink ref="B4" r:id="rId3" xr:uid="{C912A04D-137C-9445-A45F-CD750A01D356}"/>
+    <hyperlink ref="B6" r:id="rId4" xr:uid="{7088BB1A-9CED-A543-9585-DFB828361652}"/>
+    <hyperlink ref="B5" r:id="rId5" xr:uid="{56700533-8B66-364C-9ADC-22F98780DEF6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Summer 2020/Video List.xlsx
+++ b/Summer 2020/Video List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cyrilllau/Documents/GitHub/STT442/Summer 2020/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05BFE0A4-0396-7B41-8224-D938AE163431}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFF8A241-F199-FB4B-A6E7-307E65BDB3F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3900" yWindow="2260" windowWidth="28040" windowHeight="17440" xr2:uid="{E7211833-2882-D240-B480-29060643F159}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Video Name</t>
   </si>
@@ -87,6 +87,24 @@
   </si>
   <si>
     <t>7T%=V9^D</t>
+  </si>
+  <si>
+    <t>https://us02web.zoom.us/rec/share/v5ckHvKq6WNOWJXVyn7iR_EsEIvvaaa82yEW-KdfzU6Ug2K8hv8vzyvfMV_ZKz7d</t>
+  </si>
+  <si>
+    <t>mxS=F&amp;1</t>
+  </si>
+  <si>
+    <t>CH8_1</t>
+  </si>
+  <si>
+    <t>https://us02web.zoom.us/rec/share/29NUbLHX7DNJerft0GjbaP8hQa6-T6a81ilM8_QFmhu0TAH6SDZ5QLfpJFgiGN2_</t>
+  </si>
+  <si>
+    <t>CH8_2</t>
+  </si>
+  <si>
+    <t>8o=KD6vs</t>
   </si>
 </sst>
 </file>
@@ -456,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B368F891-DDC9-1F48-93CA-0D957A7AA0F7}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -534,6 +552,28 @@
         <v>15</v>
       </c>
     </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{F8A3EA73-5611-DA42-A53D-0CEE82A1AFB0}"/>
@@ -541,6 +581,8 @@
     <hyperlink ref="B4" r:id="rId3" xr:uid="{C912A04D-137C-9445-A45F-CD750A01D356}"/>
     <hyperlink ref="B6" r:id="rId4" xr:uid="{7088BB1A-9CED-A543-9585-DFB828361652}"/>
     <hyperlink ref="B5" r:id="rId5" xr:uid="{56700533-8B66-364C-9ADC-22F98780DEF6}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{2863E3C3-CF77-F64B-8D92-E52A1CEDB331}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{95450D5C-5460-A440-8317-D21DCEF61C78}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
